--- a/biology/Médecine/Hubertus_Tellenbach/Hubertus_Tellenbach.xlsx
+++ b/biology/Médecine/Hubertus_Tellenbach/Hubertus_Tellenbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hubertus Tellenbach, né le 15 mars 1914 à Cologne et mort le 4 septembre 1994 à Munich, est un psychiatre allemand qui est particulièrement connu pour ses études sur la mélancolie et la dépression. Docteur en Philosophie, il a aussi été lié au mouvement de la Daseinsanalyse et à la psychopathologie phénoménologique. Il soutient sa thèse d'habilitation en médecine à Munich en 1952 et fait toute sa carrière à l'Université  de Heidelberg, de 1956 à 1979.
 C'est aussi en 1979 que paraît la première traduction française de son ouvrage sur la mélancolie, paru en Allemagne dès 1961. Cette traduction est l'occasion d'un grand colloque organisé en octobre de la même année à la Faculté Necker et dont les contributions sont réunies dans l'ouvrage La réalité, le comique et l'humour. Autour de la pensée de Tellenach, sous la direction de Yves Pélicier.
@@ -515,7 +527,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La mélancolie, Presses Universitaires de France, coll. « Psychiatrie ouverte », 1985.  (ISBN 2130360521)
 La réalité, le comique et l'humour, &amp; Yves Pelicier : Autour de la pensée de Tellenbach,   éd. Economica, coll. « Sciences humaines », 1981.  (ISBN 271780448X)
